--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.87550196114489</v>
+        <v>0.218359</v>
       </c>
       <c r="H2">
-        <v>5.87550196114489</v>
+        <v>0.6550769999999999</v>
       </c>
       <c r="I2">
-        <v>0.5580896375089692</v>
+        <v>0.01966557738178061</v>
       </c>
       <c r="J2">
-        <v>0.5580896375089692</v>
+        <v>0.01966557738178061</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N2">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O2">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P2">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q2">
-        <v>32.16803988379316</v>
+        <v>1.237390521575333</v>
       </c>
       <c r="R2">
-        <v>32.16803988379316</v>
+        <v>11.136514694178</v>
       </c>
       <c r="S2">
-        <v>0.5398469740761954</v>
+        <v>0.01897481425978541</v>
       </c>
       <c r="T2">
-        <v>0.5398469740761954</v>
+        <v>0.01897481425978541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.87550196114489</v>
+        <v>0.218359</v>
       </c>
       <c r="H3">
-        <v>5.87550196114489</v>
+        <v>0.6550769999999999</v>
       </c>
       <c r="I3">
-        <v>0.5580896375089692</v>
+        <v>0.01966557738178061</v>
       </c>
       <c r="J3">
-        <v>0.5580896375089692</v>
+        <v>0.01966557738178061</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185010849503243</v>
+        <v>0.2062943333333333</v>
       </c>
       <c r="N3">
-        <v>0.185010849503243</v>
+        <v>0.618883</v>
       </c>
       <c r="O3">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466232</v>
       </c>
       <c r="P3">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466231</v>
       </c>
       <c r="Q3">
-        <v>1.087031609089386</v>
+        <v>0.04504622433233332</v>
       </c>
       <c r="R3">
-        <v>1.087031609089386</v>
+        <v>0.4054160189909999</v>
       </c>
       <c r="S3">
-        <v>0.01824266343277381</v>
+        <v>0.000690763121995204</v>
       </c>
       <c r="T3">
-        <v>0.01824266343277381</v>
+        <v>0.0006907631219952039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.65238023958933</v>
+        <v>6.123096</v>
       </c>
       <c r="H4">
-        <v>4.65238023958933</v>
+        <v>18.369288</v>
       </c>
       <c r="I4">
-        <v>0.4419103624910308</v>
+        <v>0.5514506761986974</v>
       </c>
       <c r="J4">
-        <v>0.4419103624910308</v>
+        <v>0.5514506761986975</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N4">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O4">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P4">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q4">
-        <v>25.47151785351777</v>
+        <v>34.698184884048</v>
       </c>
       <c r="R4">
-        <v>25.47151785351777</v>
+        <v>312.283663956432</v>
       </c>
       <c r="S4">
-        <v>0.4274653316777694</v>
+        <v>0.5320806987338971</v>
       </c>
       <c r="T4">
-        <v>0.4274653316777694</v>
+        <v>0.5320806987338971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.123096</v>
+      </c>
+      <c r="H5">
+        <v>18.369288</v>
+      </c>
+      <c r="I5">
+        <v>0.5514506761986974</v>
+      </c>
+      <c r="J5">
+        <v>0.5514506761986975</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.618883</v>
+      </c>
+      <c r="O5">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P5">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q5">
+        <v>1.263160007256</v>
+      </c>
+      <c r="R5">
+        <v>11.368440065304</v>
+      </c>
+      <c r="S5">
+        <v>0.01936997746480038</v>
+      </c>
+      <c r="T5">
+        <v>0.01936997746480038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.65238023958933</v>
-      </c>
-      <c r="H5">
-        <v>4.65238023958933</v>
-      </c>
-      <c r="I5">
-        <v>0.4419103624910308</v>
-      </c>
-      <c r="J5">
-        <v>0.4419103624910308</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.185010849503243</v>
-      </c>
-      <c r="N5">
-        <v>0.185010849503243</v>
-      </c>
-      <c r="O5">
-        <v>0.0326876942460352</v>
-      </c>
-      <c r="P5">
-        <v>0.0326876942460352</v>
-      </c>
-      <c r="Q5">
-        <v>0.8607408203385232</v>
-      </c>
-      <c r="R5">
-        <v>0.8607408203385232</v>
-      </c>
-      <c r="S5">
-        <v>0.0144450308132614</v>
-      </c>
-      <c r="T5">
-        <v>0.0144450308132614</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.762160000000001</v>
+      </c>
+      <c r="H6">
+        <v>14.28648</v>
+      </c>
+      <c r="I6">
+        <v>0.4288837464195219</v>
+      </c>
+      <c r="J6">
+        <v>0.4288837464195219</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N6">
+        <v>17.000314</v>
+      </c>
+      <c r="O6">
+        <v>0.9648745059153377</v>
+      </c>
+      <c r="P6">
+        <v>0.9648745059153376</v>
+      </c>
+      <c r="Q6">
+        <v>26.98607177274667</v>
+      </c>
+      <c r="R6">
+        <v>242.87464595472</v>
+      </c>
+      <c r="S6">
+        <v>0.4138189929216552</v>
+      </c>
+      <c r="T6">
+        <v>0.4138189929216552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.762160000000001</v>
+      </c>
+      <c r="H7">
+        <v>14.28648</v>
+      </c>
+      <c r="I7">
+        <v>0.4288837464195219</v>
+      </c>
+      <c r="J7">
+        <v>0.4288837464195219</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.618883</v>
+      </c>
+      <c r="O7">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P7">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q7">
+        <v>0.9824066224266668</v>
+      </c>
+      <c r="R7">
+        <v>8.84165960184</v>
+      </c>
+      <c r="S7">
+        <v>0.01506475349786673</v>
+      </c>
+      <c r="T7">
+        <v>0.01506475349786673</v>
       </c>
     </row>
   </sheetData>
